--- a/testBed/TestData.xlsx
+++ b/testBed/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratilipib\Desktop\Documents\Personal\CodingsAndPractices\playWrightProject\testBed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Putul\Desktop\Pratilipi's\playWrightProject\testBed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731A53-D322-435A-AF73-F0A2CF3D2CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1ADF2E-B4B6-46E9-8D45-055F1865AECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>https://www.saucedemo.com/inventory.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homePageLink </t>
   </si>
   <si>
     <t>UserName</t>
@@ -118,13 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,86 +396,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>